--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_32.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:00:11.860000', '0:00:15.880000'), ('0:00:11.260000', '0:00:15.240000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[['C:7', 'F:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:40.340000', '0:00:42.740000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -618,322 +630,337 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1053361053361053</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:12.394648', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:14.900000', '0:00:20.360000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:12.020000', '0:00:25.140000'), ('0:00:49.080000', '0:00:57.840000'), ('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:34.660000', '0:00:36.260000'), ('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.5, 3.9)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:08.760000', '0:02:14')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -941,35 +968,40 @@
           <t>schubert-winterreise_142</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -978,227 +1010,178 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(127.6, 132.4)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.96, 13.12)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.823786, 18.895804)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
